--- a/resources/sheets/php.xlsx
+++ b/resources/sheets/php.xlsx
@@ -2,16 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PHP" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="PHP Dates" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="PHP String functions" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="HTML" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Python" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Wagtail" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Jinja2 filters" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Wagtail template" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="291">
   <si>
     <t xml:space="preserve">$_SERVER['REQUEST_METHOD'] == 'POST'</t>
   </si>
@@ -442,10 +445,460 @@
     <t xml:space="preserve">wordwrap</t>
   </si>
   <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who whowho</t>
+    <t xml:space="preserve">capitalize()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts the first character to upper case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casefold()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts string into lower case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a centered string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the number of times a specified value occurs in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encode()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns an encoded version of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endswith()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns true if the string ends with the specified value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expandtabs()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets the tab size of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searches the string for a specified value and returns the position of where it was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formats specified values in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_map()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isalnum()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are alphanumeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isalpha()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are in the alphabet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isdecimal()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are decimals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isdigit()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isidentifier()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if the string is an identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islower()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are lower case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isnumeric()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isprintable()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are printable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isspace()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are whitespaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">istitle()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if the string follows the rules of a title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isupper()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns True if all characters in the string are upper case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joins the elements of an iterable to the end of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ljust()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a left justified version of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts a string into lower case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lstrip()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a left trim version of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maketrans()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a translation table to be used in translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partition()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a tuple where the string is parted into three parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a string where a specified value is replaced with a specified value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rfind()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searches the string for a specified value and returns the last position of where it was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rindex()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rjust()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a right justified version of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpartition()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsplit()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splits the string at the specified separator, and returns a list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rstrip()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a right trim version of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">split()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">splitlines()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splits the string at line breaks and returns a list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startswith()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns true if the string starts with the specified value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strip()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a trimmed version of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swapcase()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaps cases, lower case becomes upper case and vice versa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts the first character of each word to upper case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a translated string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts a string into upper case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zfill()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fills the string with a specified number of 0 values at the beginning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from modelcluster.fields import ParentalKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from wagtail.admin.edit_handlers import FieldPanel, PageChooserPanel, StreamFieldPanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from wagtail.contrib.settings.models import BaseSetting, register_setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from wagtail.core import blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from wagtail.core.fields import StreamField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from wagtail.core.models import Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from wagtail.images.blocks import ImageChooserBlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python manage.py createsuperuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python manage.py makemigrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python manage.py migrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python manage.py runserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python manage.py startapp $name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbose_name = "Home Page"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbose_name_plural = "Home Pages"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wagtail start mysite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wagtail.contrib.settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wagtail.contrib.settings.context_processors.settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wagtail.contrib.wagtailstyleguide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dictsort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filesizeformat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forceescape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groupby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rejectattr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectattr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">striptags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tojson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truncate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urlencode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urlize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wordcount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmlattr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{% load wagtailimages_tags %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{% load wagtailcore_tags %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{% image self.banner_image fill-80x80 %}</t>
   </si>
 </sst>
 </file>
@@ -524,12 +977,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,16 +1013,16 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="120.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +1141,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -689,7 +1150,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="49.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="34.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="8" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +1304,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -858,11 +1319,11 @@
   </sheetPr>
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.85"/>
   </cols>
@@ -1360,7 +1821,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1373,32 +1834,816 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="75.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108.93"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.04"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>